--- a/output/CAN_test_results.xlsx
+++ b/output/CAN_test_results.xlsx
@@ -402,887 +402,887 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>70710127</v>
+        <v>66541638</v>
       </c>
       <c r="B2">
-        <v>70710133</v>
+        <v>66541649</v>
       </c>
       <c r="C2">
-        <v>0.006</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>70710133</v>
+        <v>66541649</v>
       </c>
       <c r="B3">
-        <v>70710142</v>
+        <v>66541663</v>
       </c>
       <c r="C3">
-        <v>0.008999999999999999</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>70710142</v>
+        <v>66541663</v>
       </c>
       <c r="B4">
-        <v>70710151</v>
+        <v>66541677</v>
       </c>
       <c r="C4">
-        <v>0.008999999999999999</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>70710151</v>
+        <v>66541677</v>
       </c>
       <c r="B5">
-        <v>70710160</v>
+        <v>66541692</v>
       </c>
       <c r="C5">
-        <v>0.008999999999999999</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>70710160</v>
+        <v>66541692</v>
       </c>
       <c r="B6">
-        <v>70710169</v>
+        <v>66541703</v>
       </c>
       <c r="C6">
-        <v>0.008999999999999999</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>70710169</v>
+        <v>66541703</v>
       </c>
       <c r="B7">
-        <v>70710178</v>
+        <v>66541714</v>
       </c>
       <c r="C7">
-        <v>0.008999999999999999</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>70710178</v>
+        <v>66541714</v>
       </c>
       <c r="B8">
-        <v>70710188</v>
+        <v>66541725</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>70710188</v>
+        <v>66541725</v>
       </c>
       <c r="B9">
-        <v>70710196</v>
+        <v>66541736</v>
       </c>
       <c r="C9">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>70710196</v>
+        <v>66541736</v>
       </c>
       <c r="B10">
-        <v>70710210</v>
+        <v>66541747</v>
       </c>
       <c r="C10">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>70710210</v>
+        <v>66541747</v>
       </c>
       <c r="B11">
-        <v>70710219</v>
+        <v>66541758</v>
       </c>
       <c r="C11">
-        <v>0.008999999999999999</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>70710219</v>
+        <v>66541758</v>
       </c>
       <c r="B12">
-        <v>70710228</v>
+        <v>66541768</v>
       </c>
       <c r="C12">
-        <v>0.008999999999999999</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>70710228</v>
+        <v>66541768</v>
       </c>
       <c r="B13">
-        <v>70710236</v>
+        <v>66541779</v>
       </c>
       <c r="C13">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>70710236</v>
+        <v>66541779</v>
       </c>
       <c r="B14">
-        <v>70710243</v>
+        <v>66541790</v>
       </c>
       <c r="C14">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>70710243</v>
+        <v>66541790</v>
       </c>
       <c r="B15">
-        <v>70710249</v>
+        <v>66541801</v>
       </c>
       <c r="C15">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>70710249</v>
+        <v>66541801</v>
       </c>
       <c r="B16">
-        <v>70710256</v>
+        <v>66541812</v>
       </c>
       <c r="C16">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>70710256</v>
+        <v>66541812</v>
       </c>
       <c r="B17">
-        <v>70710263</v>
+        <v>66541823</v>
       </c>
       <c r="C17">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>70710263</v>
+        <v>66541823</v>
       </c>
       <c r="B18">
-        <v>70710270</v>
+        <v>66541835</v>
       </c>
       <c r="C18">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>70710270</v>
+        <v>66541835</v>
       </c>
       <c r="B19">
-        <v>70710277</v>
+        <v>66541847</v>
       </c>
       <c r="C19">
-        <v>0.007</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>70710277</v>
+        <v>66541847</v>
       </c>
       <c r="B20">
-        <v>70710283</v>
+        <v>66541858</v>
       </c>
       <c r="C20">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>70710283</v>
+        <v>66541858</v>
       </c>
       <c r="B21">
-        <v>70710290</v>
+        <v>66541867</v>
       </c>
       <c r="C21">
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>70710290</v>
+        <v>66541867</v>
       </c>
       <c r="B22">
-        <v>70710296</v>
+        <v>66541878</v>
       </c>
       <c r="C22">
-        <v>0.006</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>70710296</v>
+        <v>66541878</v>
       </c>
       <c r="B23">
-        <v>70710303</v>
+        <v>66541889</v>
       </c>
       <c r="C23">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>70710303</v>
+        <v>66541889</v>
       </c>
       <c r="B24">
-        <v>70710310</v>
+        <v>66541901</v>
       </c>
       <c r="C24">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>70710311</v>
+        <v>66541901</v>
       </c>
       <c r="B25">
-        <v>70710317</v>
+        <v>66541912</v>
       </c>
       <c r="C25">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>70710317</v>
+        <v>66541912</v>
       </c>
       <c r="B26">
-        <v>70710324</v>
+        <v>66541923</v>
       </c>
       <c r="C26">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>70710324</v>
+        <v>66541923</v>
       </c>
       <c r="B27">
-        <v>70710332</v>
+        <v>66541933</v>
       </c>
       <c r="C27">
-        <v>0.008</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>70710332</v>
+        <v>66541933</v>
       </c>
       <c r="B28">
-        <v>70710338</v>
+        <v>66541944</v>
       </c>
       <c r="C28">
-        <v>0.006</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>70710338</v>
+        <v>66541944</v>
       </c>
       <c r="B29">
-        <v>70710345</v>
+        <v>66541955</v>
       </c>
       <c r="C29">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>70710345</v>
+        <v>66541955</v>
       </c>
       <c r="B30">
-        <v>70710352</v>
+        <v>66541966</v>
       </c>
       <c r="C30">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>70710352</v>
+        <v>66541966</v>
       </c>
       <c r="B31">
-        <v>70710359</v>
+        <v>66541974</v>
       </c>
       <c r="C31">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>70710359</v>
+        <v>66541974</v>
       </c>
       <c r="B32">
-        <v>70710365</v>
+        <v>66541987</v>
       </c>
       <c r="C32">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>70710365</v>
+        <v>66541987</v>
       </c>
       <c r="B33">
-        <v>70710372</v>
+        <v>66541998</v>
       </c>
       <c r="C33">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>70710372</v>
+        <v>66541998</v>
       </c>
       <c r="B34">
-        <v>70710379</v>
+        <v>66542009</v>
       </c>
       <c r="C34">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>70710379</v>
+        <v>66542009</v>
       </c>
       <c r="B35">
-        <v>70710386</v>
+        <v>66542020</v>
       </c>
       <c r="C35">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>70710386</v>
+        <v>66542020</v>
       </c>
       <c r="B36">
-        <v>70710393</v>
+        <v>66542031</v>
       </c>
       <c r="C36">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>70710393</v>
+        <v>66542031</v>
       </c>
       <c r="B37">
-        <v>70710400</v>
+        <v>66542042</v>
       </c>
       <c r="C37">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>70710400</v>
+        <v>66542042</v>
       </c>
       <c r="B38">
-        <v>70710405</v>
+        <v>66542053</v>
       </c>
       <c r="C38">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>70710405</v>
+        <v>66542053</v>
       </c>
       <c r="B39">
-        <v>70710413</v>
+        <v>66542064</v>
       </c>
       <c r="C39">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>70710413</v>
+        <v>66542064</v>
       </c>
       <c r="B40">
-        <v>70710419</v>
+        <v>66542075</v>
       </c>
       <c r="C40">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>70710419</v>
+        <v>66542075</v>
       </c>
       <c r="B41">
-        <v>70710426</v>
+        <v>66542087</v>
       </c>
       <c r="C41">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>70710426</v>
+        <v>66542087</v>
       </c>
       <c r="B42">
-        <v>70710434</v>
+        <v>66542097</v>
       </c>
       <c r="C42">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>70710434</v>
+        <v>66542097</v>
       </c>
       <c r="B43">
-        <v>70710440</v>
+        <v>66542109</v>
       </c>
       <c r="C43">
-        <v>0.006</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>70710440</v>
+        <v>66542109</v>
       </c>
       <c r="B44">
-        <v>70710447</v>
+        <v>66542120</v>
       </c>
       <c r="C44">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>70710447</v>
+        <v>66542120</v>
       </c>
       <c r="B45">
-        <v>70710454</v>
+        <v>66542131</v>
       </c>
       <c r="C45">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>70710454</v>
+        <v>66542131</v>
       </c>
       <c r="B46">
-        <v>70710461</v>
+        <v>66542142</v>
       </c>
       <c r="C46">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>70710461</v>
+        <v>66542142</v>
       </c>
       <c r="B47">
-        <v>70710468</v>
+        <v>66542153</v>
       </c>
       <c r="C47">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>70710468</v>
+        <v>66542153</v>
       </c>
       <c r="B48">
-        <v>70710474</v>
+        <v>66542165</v>
       </c>
       <c r="C48">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>70710474</v>
+        <v>66542165</v>
       </c>
       <c r="B49">
-        <v>70710481</v>
+        <v>66542175</v>
       </c>
       <c r="C49">
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>70710481</v>
+        <v>66542175</v>
       </c>
       <c r="B50">
-        <v>70710488</v>
+        <v>66542186</v>
       </c>
       <c r="C50">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>70710488</v>
+        <v>66542186</v>
       </c>
       <c r="B51">
-        <v>70710495</v>
+        <v>66542197</v>
       </c>
       <c r="C51">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>70710495</v>
+        <v>66542197</v>
       </c>
       <c r="B52">
-        <v>70710501</v>
+        <v>66542208</v>
       </c>
       <c r="C52">
-        <v>0.006</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>70710501</v>
+        <v>66542208</v>
       </c>
       <c r="B53">
-        <v>70710507</v>
+        <v>66542219</v>
       </c>
       <c r="C53">
-        <v>0.006</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>70710507</v>
+        <v>66542219</v>
       </c>
       <c r="B54">
-        <v>70710514</v>
+        <v>66542230</v>
       </c>
       <c r="C54">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>70710514</v>
+        <v>66542230</v>
       </c>
       <c r="B55">
-        <v>70710521</v>
+        <v>66542241</v>
       </c>
       <c r="C55">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>70710521</v>
+        <v>66542241</v>
       </c>
       <c r="B56">
-        <v>70710528</v>
+        <v>66542252</v>
       </c>
       <c r="C56">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>70710528</v>
+        <v>66542252</v>
       </c>
       <c r="B57">
-        <v>70710535</v>
+        <v>66542263</v>
       </c>
       <c r="C57">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>70710535</v>
+        <v>66542263</v>
       </c>
       <c r="B58">
-        <v>70710542</v>
+        <v>66542274</v>
       </c>
       <c r="C58">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>70710542</v>
+        <v>66542274</v>
       </c>
       <c r="B59">
-        <v>70710548</v>
+        <v>66542285</v>
       </c>
       <c r="C59">
-        <v>0.006</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>70710548</v>
+        <v>66542285</v>
       </c>
       <c r="B60">
-        <v>70710555</v>
+        <v>66542295</v>
       </c>
       <c r="C60">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>70710555</v>
+        <v>66542295</v>
       </c>
       <c r="B61">
-        <v>70710562</v>
+        <v>66542306</v>
       </c>
       <c r="C61">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>70710562</v>
+        <v>66542306</v>
       </c>
       <c r="B62">
-        <v>70710569</v>
+        <v>66542317</v>
       </c>
       <c r="C62">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>70710569</v>
+        <v>66542317</v>
       </c>
       <c r="B63">
-        <v>70710576</v>
+        <v>66542328</v>
       </c>
       <c r="C63">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>70710576</v>
+        <v>66542328</v>
       </c>
       <c r="B64">
-        <v>70710582</v>
+        <v>66542339</v>
       </c>
       <c r="C64">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>70710582</v>
+        <v>66542339</v>
       </c>
       <c r="B65">
-        <v>70710589</v>
+        <v>66542351</v>
       </c>
       <c r="C65">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>70710589</v>
+        <v>66542351</v>
       </c>
       <c r="B66">
-        <v>70710596</v>
+        <v>66542362</v>
       </c>
       <c r="C66">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>70710596</v>
+        <v>66542362</v>
       </c>
       <c r="B67">
-        <v>70710603</v>
+        <v>66542372</v>
       </c>
       <c r="C67">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>70710603</v>
+        <v>66542373</v>
       </c>
       <c r="B68">
-        <v>70710608</v>
+        <v>66542382</v>
       </c>
       <c r="C68">
-        <v>0.005</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>70710608</v>
+        <v>66542382</v>
       </c>
       <c r="B69">
-        <v>70710616</v>
+        <v>66542393</v>
       </c>
       <c r="C69">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>70710616</v>
+        <v>66542393</v>
       </c>
       <c r="B70">
-        <v>70710623</v>
+        <v>66542404</v>
       </c>
       <c r="C70">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>70710623</v>
+        <v>66542404</v>
       </c>
       <c r="B71">
-        <v>70710630</v>
+        <v>66542415</v>
       </c>
       <c r="C71">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>70710630</v>
+        <v>66542415</v>
       </c>
       <c r="B72">
-        <v>70710636</v>
+        <v>66542426</v>
       </c>
       <c r="C72">
-        <v>0.006</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>70710636</v>
+        <v>66542426</v>
       </c>
       <c r="B73">
-        <v>70710643</v>
+        <v>66542437</v>
       </c>
       <c r="C73">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>70710643</v>
+        <v>66542437</v>
       </c>
       <c r="B74">
-        <v>70710650</v>
+        <v>66542448</v>
       </c>
       <c r="C74">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>70710650</v>
+        <v>66542448</v>
       </c>
       <c r="B75">
-        <v>70710657</v>
+        <v>66542459</v>
       </c>
       <c r="C75">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>70710657</v>
+        <v>66542459</v>
       </c>
       <c r="B76">
-        <v>70710663</v>
+        <v>66542470</v>
       </c>
       <c r="C76">
-        <v>0.006</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>70710663</v>
+        <v>66542470</v>
       </c>
       <c r="B77">
-        <v>70710670</v>
+        <v>66542480</v>
       </c>
       <c r="C77">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>70710670</v>
+        <v>66542480</v>
       </c>
       <c r="B78">
-        <v>70710677</v>
+        <v>66542491</v>
       </c>
       <c r="C78">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>70710677</v>
+        <v>66542491</v>
       </c>
       <c r="B79">
-        <v>70710684</v>
+        <v>66542500</v>
       </c>
       <c r="C79">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>70710684</v>
+        <v>66542500</v>
       </c>
       <c r="B80">
-        <v>70710691</v>
+        <v>66542509</v>
       </c>
       <c r="C80">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>70710691</v>
+        <v>66542509</v>
       </c>
       <c r="B81">
-        <v>70710697</v>
+        <v>66542521</v>
       </c>
       <c r="C81">
-        <v>0.006</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="B82">
-        <v>0.007112500000000005</v>
+        <v>0.0156125</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
